--- a/制作Ⅲゲーム企画書仕様書.xlsx
+++ b/制作Ⅲゲーム企画書仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Desktop\Game2 Season2\18Monden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DFF72-C98A-4DD6-9514-8537878A837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBF3C94-C1C8-49D9-AD26-9196CCE71D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10260" yWindow="0" windowWidth="18540" windowHeight="15540" activeTab="1" xr2:uid="{EF043F89-730A-4BF3-8ADF-84E4BAC4E554}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -217,6 +217,302 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後方確認する</t>
+    <rPh sb="0" eb="4">
+      <t>コウホウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ上の設定された位置に出現する</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーやCPUが触れると消滅する</t>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消滅後10秒経つと再び出現</t>
+    <rPh sb="0" eb="3">
+      <t>ショウメツゴ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定された位置に配置</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーやCPUが触れると消滅</t>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消滅後3秒経つと再び出現</t>
+    <rPh sb="0" eb="3">
+      <t>ショウメツゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ビョウタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁に当たると5回まで反射する。6回目は消滅</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を食らうとコインをばら撒く</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度を保ったまま地面を滑っていく</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヘイカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げると曲線を描いて地面に落下し、そのまま残る</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30秒経つと消滅</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵もしくはアイテムに当たると消滅</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広範囲に爆破する爆弾を投げる</t>
+    <rPh sb="0" eb="3">
+      <t>コウハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵もしくはアイテムに当たると爆発して消滅</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投擲後3秒で爆発して消滅</t>
+    <rPh sb="0" eb="2">
+      <t>トウテキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10秒間無敵になる</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを使う(ぶら下げる)</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを投げる</t>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -665,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7311B300-7F0A-49AE-94B2-4FBA62CEA037}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -704,6 +1000,129 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/制作Ⅲゲーム企画書仕様書.xlsx
+++ b/制作Ⅲゲーム企画書仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Desktop\Game2 Season2\18Monden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBF3C94-C1C8-49D9-AD26-9196CCE71D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2C622-8C0C-47BB-A831-61C9A9ED313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10260" yWindow="0" windowWidth="18540" windowHeight="15540" activeTab="1" xr2:uid="{EF043F89-730A-4BF3-8ADF-84E4BAC4E554}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -180,30 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>前方に移動する</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンポウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後方に移動する</t>
-    <rPh sb="0" eb="2">
-      <t>コウホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーブする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,30 +197,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後方確認する</t>
-    <rPh sb="0" eb="4">
-      <t>コウホウカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ上の設定された位置に出現する</t>
-    <rPh sb="3" eb="4">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュツゲン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -281,19 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定された位置に配置</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーやCPUが触れると消滅</t>
     <rPh sb="10" eb="11">
       <t>フ</t>
@@ -320,37 +260,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アイテム2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壁に当たると5回まで反射する。6回目は消滅</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウメツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -386,28 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投げると曲線を描いて地面に落下し、そのまま残る</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キョクセン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エガ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ラッカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30秒経つと消滅</t>
     <rPh sb="2" eb="4">
       <t>ビョウタ</t>
@@ -439,38 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広範囲に爆破する爆弾を投げる</t>
-    <rPh sb="0" eb="3">
-      <t>コウハンイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バクハ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バクダン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵もしくはアイテムに当たると爆発して消滅</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バクハツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投擲後3秒で爆発して消滅</t>
     <rPh sb="0" eb="2">
       <t>トウテキ</t>
@@ -500,7 +360,253 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムを使う(ぶら下げる)</t>
+    <t>アイテム5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵、壁、アイテムに当たると消滅</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁に当たると反射する</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最も近い相手を自動追尾する</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ジドウツイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形を作る</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムボックスを配置する</t>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを配置する</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵(CPU)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くのコインを回収する</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くのアイテムボックスを取る</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを近くの敵に使う</t>
+    <rPh sb="5" eb="6">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得コイン数と順位を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージをランダムに移動する</t>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持アイテムを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持コイン数を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップを表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭上に所持コイン数を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ズジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業計画</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前進(Wキー)</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後退(Sキー)</t>
+    <rPh sb="0" eb="2">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーブ(右Dキー、左Aキー)</t>
+  </si>
+  <si>
+    <t>後方確認(スペース)</t>
+    <rPh sb="0" eb="4">
+      <t>コウホウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ(Jキー)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを使う、ぶら下げる(Kキー)</t>
     <rPh sb="5" eb="6">
       <t>ツカ</t>
     </rPh>
@@ -510,9 +616,82 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムを投げる</t>
-    <rPh sb="5" eb="6">
+    <t>アイテムを前方に投げる(Iキー)</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを後方に投げる(Mキー)</t>
+    <rPh sb="5" eb="7">
+      <t>コウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁に当たると5回まで反射、6回目で消滅</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げると曲線を描いて落下し、地面に残る</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵もしくはアイテムに当たると爆発し消滅</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウメツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -521,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,13 +716,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -560,12 +762,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,6 +808,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>234411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="マリオカートWii 公式大会 コイン編 / Mario Kart Wii Official Tournament [Coin] - YouTube">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42316E8F-1794-467B-96BF-5603D6E9E5C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1428750" y="4044411"/>
+          <a:ext cx="3552825" cy="2661189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632BA909-0781-412C-9917-28BAFCA39FF3}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -915,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -953,18 +1245,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7311B300-7F0A-49AE-94B2-4FBA62CEA037}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -972,159 +1270,592 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B51" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B52" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="N53" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/制作Ⅲゲーム企画書仕様書.xlsx
+++ b/制作Ⅲゲーム企画書仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Desktop\Game2 Season2\18Monden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B2C622-8C0C-47BB-A831-61C9A9ED313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD9AEA2-859A-49A0-8335-8B819B98C979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10260" yWindow="0" windowWidth="18540" windowHeight="15540" activeTab="1" xr2:uid="{EF043F89-730A-4BF3-8ADF-84E4BAC4E554}"/>
   </bookViews>
@@ -784,14 +784,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7311B300-7F0A-49AE-94B2-4FBA62CEA037}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1279,12 +1279,12 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="G2">
         <v>1</v>
       </c>
@@ -1320,99 +1320,99 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -1427,19 +1427,19 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -1454,70 +1454,70 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1529,139 +1529,142 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B39" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1669,151 +1672,160 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="M40" s="3"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="B43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="B44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="N46" s="3"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="P48" s="3"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="N50" s="3"/>
+      <c r="B50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B51" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="H51" s="3"/>
+      <c r="B51" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B52" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="B52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B53" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="N53" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
+  <mergeCells count="48">
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B14:E14"/>
@@ -1824,35 +1836,16 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
